--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 06:18:59</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 06:30:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 06:30:12</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 06:40:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 06:40:27</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 06:48:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225729.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 06:48:53</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 06:57:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225729.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 06:57:55</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 07:13:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 07:13:16</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 07:30:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 07:30:48</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 07:42:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 07:42:32</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 07:50:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 07:50:45</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 07:59:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 07:59:28</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 08:19:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223429.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 08:19:20</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 08:34:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 08:34:19</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 08:45:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-29.xlsx
+++ b/sigbm_download_2022-11-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 08:45:20</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 08:53:57</t>
   </si>
   <si>
     <t>ID Barragem</t>
